--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H2">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>25.28050284632889</v>
+        <v>36.45889529296177</v>
       </c>
       <c r="R2">
-        <v>227.52452561696</v>
+        <v>328.130057636656</v>
       </c>
       <c r="S2">
-        <v>0.002205199747580241</v>
+        <v>0.002663916894785767</v>
       </c>
       <c r="T2">
-        <v>0.002205199747580241</v>
+        <v>0.002663916894785767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H3">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>43.36169650703733</v>
+        <v>49.80206434643733</v>
       </c>
       <c r="R3">
-        <v>390.255268563336</v>
+        <v>448.218579117936</v>
       </c>
       <c r="S3">
-        <v>0.003782409027748252</v>
+        <v>0.0036388530025838</v>
       </c>
       <c r="T3">
-        <v>0.003782409027748251</v>
+        <v>0.0036388530025838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H4">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.3201464090488889</v>
+        <v>1.842163381904</v>
       </c>
       <c r="R4">
-        <v>2.88131768144</v>
+        <v>16.579470437136</v>
       </c>
       <c r="S4">
-        <v>2.792613678275194E-05</v>
+        <v>0.0001346000781586242</v>
       </c>
       <c r="T4">
-        <v>2.792613678275194E-05</v>
+        <v>0.0001346000781586242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H5">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>197.8374128834987</v>
+        <v>276.6568594444657</v>
       </c>
       <c r="R5">
-        <v>1780.536715951488</v>
+        <v>2489.911735000192</v>
       </c>
       <c r="S5">
-        <v>0.0172572126276346</v>
+        <v>0.02021429546919806</v>
       </c>
       <c r="T5">
-        <v>0.01725721262763459</v>
+        <v>0.02021429546919806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H6">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>0.693035192696</v>
+        <v>1.250293304544</v>
       </c>
       <c r="R6">
-        <v>6.237316734264001</v>
+        <v>11.252639740896</v>
       </c>
       <c r="S6">
-        <v>6.045295227263933E-05</v>
+        <v>9.135431643358817E-05</v>
       </c>
       <c r="T6">
-        <v>6.045295227263933E-05</v>
+        <v>9.135431643358816E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J7">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>1047.076143589089</v>
+        <v>1314.785731806623</v>
       </c>
       <c r="R7">
-        <v>9423.6852923018</v>
+        <v>11833.0715862596</v>
       </c>
       <c r="S7">
-        <v>0.09133568511574344</v>
+        <v>0.09606654002649029</v>
       </c>
       <c r="T7">
-        <v>0.09133568511574344</v>
+        <v>0.09606654002649029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J8">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>1795.968942313278</v>
@@ -948,10 +948,10 @@
         <v>16163.7204808195</v>
       </c>
       <c r="S8">
-        <v>0.1566610554515261</v>
+        <v>0.1312248209797639</v>
       </c>
       <c r="T8">
-        <v>0.1566610554515261</v>
+        <v>0.1312248209797639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J9">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>13.25992878418889</v>
+        <v>66.43235102769499</v>
       </c>
       <c r="R9">
-        <v>119.3393590577</v>
+        <v>597.8911592492549</v>
       </c>
       <c r="S9">
-        <v>0.001156653876134094</v>
+        <v>0.004853966661386436</v>
       </c>
       <c r="T9">
-        <v>0.001156653876134094</v>
+        <v>0.004853966661386436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J10">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>8194.094737707226</v>
+        <v>9976.837983739817</v>
       </c>
       <c r="R10">
-        <v>73746.85263936504</v>
+        <v>89791.54185365835</v>
       </c>
       <c r="S10">
-        <v>0.7147648825294052</v>
+        <v>0.7289707229981686</v>
       </c>
       <c r="T10">
-        <v>0.7147648825294051</v>
+        <v>0.7289707229981685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J11">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>28.704358507055</v>
+        <v>45.08825032076999</v>
       </c>
       <c r="R11">
-        <v>258.339226563495</v>
+        <v>405.7942528869299</v>
       </c>
       <c r="S11">
-        <v>0.002503860169197639</v>
+        <v>0.003294432012289082</v>
       </c>
       <c r="T11">
-        <v>0.002503860169197638</v>
+        <v>0.003294432012289082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H12">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>10.96300790017333</v>
+        <v>0.2889956418201111</v>
       </c>
       <c r="R12">
-        <v>98.66707110156</v>
+        <v>2.600960776381</v>
       </c>
       <c r="S12">
-        <v>0.0009562951497103268</v>
+        <v>2.11158447500374E-05</v>
       </c>
       <c r="T12">
-        <v>0.0009562951497103266</v>
+        <v>2.11158447500374E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H13">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>18.804001813619</v>
+        <v>0.3947618114623333</v>
       </c>
       <c r="R13">
-        <v>169.236016322571</v>
+        <v>3.552856303161</v>
       </c>
       <c r="S13">
-        <v>0.001640259305954137</v>
+        <v>2.884378834083194E-05</v>
       </c>
       <c r="T13">
-        <v>0.001640259305954137</v>
+        <v>2.884378834083195E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H14">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.1388329825933333</v>
+        <v>0.014602120679</v>
       </c>
       <c r="R14">
-        <v>1.24949684334</v>
+        <v>0.131419086111</v>
       </c>
       <c r="S14">
-        <v>1.211029938888613E-05</v>
+        <v>1.066923055784358E-06</v>
       </c>
       <c r="T14">
-        <v>1.211029938888612E-05</v>
+        <v>1.066923055784358E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H15">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>85.79311628315202</v>
+        <v>2.192952529599111</v>
       </c>
       <c r="R15">
-        <v>772.1380465483682</v>
+        <v>19.736572766392</v>
       </c>
       <c r="S15">
-        <v>0.00748367069760254</v>
+        <v>0.0001602309462785615</v>
       </c>
       <c r="T15">
-        <v>0.007483670697602539</v>
+        <v>0.0001602309462785615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H16">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>0.300537941781</v>
+        <v>0.009910594194</v>
       </c>
       <c r="R16">
-        <v>2.704841476029</v>
+        <v>0.08919534774599999</v>
       </c>
       <c r="S16">
-        <v>2.621570454442077E-05</v>
+        <v>7.241305338140327E-07</v>
       </c>
       <c r="T16">
-        <v>2.621570454442077E-05</v>
+        <v>7.241305338140326E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H17">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>0.1366359824266667</v>
+        <v>11.33081504425444</v>
       </c>
       <c r="R17">
-        <v>1.22972384184</v>
+        <v>101.97733539829</v>
       </c>
       <c r="S17">
-        <v>1.191865667345372E-05</v>
+        <v>0.0008279008287425842</v>
       </c>
       <c r="T17">
-        <v>1.191865667345372E-05</v>
+        <v>0.0008279008287425841</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H18">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>0.234361161166</v>
+        <v>15.47764888094333</v>
       </c>
       <c r="R18">
-        <v>2.109250450494</v>
+        <v>139.29883992849</v>
       </c>
       <c r="S18">
-        <v>2.044315243994147E-05</v>
+        <v>0.001130894669577837</v>
       </c>
       <c r="T18">
-        <v>2.044315243994146E-05</v>
+        <v>0.001130894669577837</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H19">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.001730326306666667</v>
+        <v>0.5725135771099999</v>
       </c>
       <c r="R19">
-        <v>0.01557293676</v>
+        <v>5.152622193989999</v>
       </c>
       <c r="S19">
-        <v>1.50935096421426E-07</v>
+        <v>4.183145370430306E-05</v>
       </c>
       <c r="T19">
-        <v>1.50935096421426E-07</v>
+        <v>4.183145370430305E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H20">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>1.069271028128</v>
+        <v>85.98032606036445</v>
       </c>
       <c r="R20">
-        <v>9.623439253152002</v>
+        <v>773.82293454328</v>
       </c>
       <c r="S20">
-        <v>9.327172863830682E-05</v>
+        <v>0.006282265037679566</v>
       </c>
       <c r="T20">
-        <v>9.32717286383068E-05</v>
+        <v>0.006282265037679565</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.322956666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.96887</v>
+      </c>
+      <c r="I21">
+        <v>0.008311283383757393</v>
+      </c>
+      <c r="J21">
+        <v>0.008311283383757391</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.167274</v>
+      </c>
+      <c r="N21">
+        <v>0.501822</v>
+      </c>
+      <c r="O21">
+        <v>0.00341600601762507</v>
+      </c>
+      <c r="P21">
+        <v>0.00341600601762507</v>
+      </c>
+      <c r="Q21">
+        <v>0.38857025346</v>
+      </c>
+      <c r="R21">
+        <v>3.49713228114</v>
+      </c>
+      <c r="S21">
+        <v>2.839139405310251E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.83913940531025E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H22">
+        <v>0.271025</v>
+      </c>
+      <c r="I22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.877755666666666</v>
+      </c>
+      <c r="N22">
+        <v>14.633267</v>
+      </c>
+      <c r="O22">
+        <v>0.09961167132870688</v>
+      </c>
+      <c r="P22">
+        <v>0.09961167132870689</v>
+      </c>
+      <c r="Q22">
+        <v>0.4406645765194444</v>
+      </c>
+      <c r="R22">
+        <v>3.965981188674999</v>
+      </c>
+      <c r="S22">
+        <v>3.219773393820789E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.219773393820789E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H23">
+        <v>0.271025</v>
+      </c>
+      <c r="I23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.662909</v>
+      </c>
+      <c r="N23">
+        <v>19.988727</v>
+      </c>
+      <c r="O23">
+        <v>0.1360673938501395</v>
+      </c>
+      <c r="P23">
+        <v>0.1360673938501395</v>
+      </c>
+      <c r="Q23">
+        <v>0.6019383039083332</v>
+      </c>
+      <c r="R23">
+        <v>5.417444735175</v>
+      </c>
+      <c r="S23">
+        <v>4.398140987309754E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.398140987309755E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H24">
+        <v>0.271025</v>
+      </c>
+      <c r="I24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.246459</v>
+      </c>
+      <c r="N24">
+        <v>0.739377</v>
+      </c>
+      <c r="O24">
+        <v>0.00503309197542868</v>
+      </c>
+      <c r="P24">
+        <v>0.00503309197542868</v>
+      </c>
+      <c r="Q24">
+        <v>0.02226551682499999</v>
+      </c>
+      <c r="R24">
+        <v>0.200389651425</v>
+      </c>
+      <c r="S24">
+        <v>1.626859123532041E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.626859123532041E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.035174</v>
-      </c>
-      <c r="H21">
-        <v>0.105522</v>
-      </c>
-      <c r="I21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="J21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.106491</v>
-      </c>
-      <c r="N21">
-        <v>0.319473</v>
-      </c>
-      <c r="O21">
-        <v>0.002590855561941376</v>
-      </c>
-      <c r="P21">
-        <v>0.002590855561941376</v>
-      </c>
-      <c r="Q21">
-        <v>0.003745714434000001</v>
-      </c>
-      <c r="R21">
-        <v>0.03371142990600001</v>
-      </c>
-      <c r="S21">
-        <v>3.267359266773427E-07</v>
-      </c>
-      <c r="T21">
-        <v>3.267359266773426E-07</v>
+      <c r="G25">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H25">
+        <v>0.271025</v>
+      </c>
+      <c r="I25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.01331466666667</v>
+      </c>
+      <c r="N25">
+        <v>111.039944</v>
+      </c>
+      <c r="O25">
+        <v>0.7558718368280999</v>
+      </c>
+      <c r="P25">
+        <v>0.7558718368280999</v>
+      </c>
+      <c r="Q25">
+        <v>3.343844535844444</v>
+      </c>
+      <c r="R25">
+        <v>30.09460082259999</v>
+      </c>
+      <c r="S25">
+        <v>0.0002443223767751592</v>
+      </c>
+      <c r="T25">
+        <v>0.0002443223767751592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H26">
+        <v>0.271025</v>
+      </c>
+      <c r="I26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.167274</v>
+      </c>
+      <c r="N26">
+        <v>0.501822</v>
+      </c>
+      <c r="O26">
+        <v>0.00341600601762507</v>
+      </c>
+      <c r="P26">
+        <v>0.00341600601762507</v>
+      </c>
+      <c r="Q26">
+        <v>0.01511181195</v>
+      </c>
+      <c r="R26">
+        <v>0.13600630755</v>
+      </c>
+      <c r="S26">
+        <v>1.1041643154833E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.1041643154833E-06</v>
       </c>
     </row>
   </sheetData>
